--- a/console/Networking/kubernetesExcel/components/create/selectAkSk.xlsx
+++ b/console/Networking/kubernetesExcel/components/create/selectAkSk.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.15\Console_190116-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
@@ -21,22 +16,71 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>selectAkSk_i18nKey_1</t>
+  </si>
+  <si>
+    <t>selectAkSk_i18nKey_2</t>
+  </si>
+  <si>
+    <t>selectAkSk_i18nKey_3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>无可用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AccessKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，请前往</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Created At</t>
+  </si>
+  <si>
     <t xml:space="preserve">No available AccessKey, please go to </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selectAkSk_i18nKey_1</t>
-  </si>
-  <si>
-    <t>selectAkSk_i18nKey_2</t>
-  </si>
-  <si>
-    <t>Creation Time</t>
-  </si>
-  <si>
-    <t>selectAkSk_i18nKey_3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -44,17 +88,6 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>创建时间</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
       <t>仅显示启用状态的</t>
     </r>
     <r>
@@ -66,47 +99,10 @@
       </rPr>
       <t>Access Key ID</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>无可用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AccessKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>，请前往</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Display enabled AccessKey ID only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display  Access Key IDs in active status only</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +503,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -515,15 +511,16 @@
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -531,31 +528,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B3 A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>